--- a/ranking_chart.xlsx
+++ b/ranking_chart.xlsx
@@ -25,97 +25,97 @@
     <t>ELO</t>
   </si>
   <si>
+    <t>KOR_뼈대</t>
+  </si>
+  <si>
+    <t>ᴏɢ_라어못함</t>
+  </si>
+  <si>
+    <t>ㅇㅂㅇ</t>
+  </si>
+  <si>
+    <t>De.Z£us</t>
+  </si>
+  <si>
+    <t>R.아보</t>
+  </si>
+  <si>
+    <t>KOR_붕셰달달</t>
+  </si>
+  <si>
+    <t>SFC丶露西</t>
+  </si>
+  <si>
+    <t>KOR_SUMMER</t>
+  </si>
+  <si>
+    <t>KOR_Kuma</t>
+  </si>
+  <si>
+    <t>R.겨울</t>
+  </si>
+  <si>
+    <t>KOR_Autumn</t>
+  </si>
+  <si>
+    <t>mirae 해리</t>
+  </si>
+  <si>
+    <t>KOR_Porn</t>
+  </si>
+  <si>
+    <t>KOR_조영동</t>
+  </si>
+  <si>
+    <t>KOR_아조찌김모찌</t>
+  </si>
+  <si>
+    <t>XQ_야후ღ</t>
+  </si>
+  <si>
+    <t>KOR_Estrella</t>
+  </si>
+  <si>
+    <t>애플</t>
+  </si>
+  <si>
+    <t>ᴄᴡɴ_주노</t>
+  </si>
+  <si>
+    <t>R.검정좌</t>
+  </si>
+  <si>
+    <t>세야</t>
+  </si>
+  <si>
+    <t>ᴄᴡɴ_도윤노비</t>
+  </si>
+  <si>
+    <t>R.강정이</t>
+  </si>
+  <si>
+    <t>ᴍɪʀᴀᴇღ해리잉</t>
+  </si>
+  <si>
+    <t>De.그남자</t>
+  </si>
+  <si>
+    <t>홈플러스카트</t>
+  </si>
+  <si>
+    <t>R.인성좌</t>
+  </si>
+  <si>
+    <t>KOR_독도</t>
+  </si>
+  <si>
+    <t>KOR_피터팬</t>
+  </si>
+  <si>
+    <t>KOR_Spring (템유저)</t>
+  </si>
+  <si>
     <t>KOR_Pray</t>
-  </si>
-  <si>
-    <t>KOR_Spring (템유저)</t>
-  </si>
-  <si>
-    <t>KOR_피터팬</t>
-  </si>
-  <si>
-    <t>KOR_독도</t>
-  </si>
-  <si>
-    <t>R.인성좌</t>
-  </si>
-  <si>
-    <t>홈플러스카트</t>
-  </si>
-  <si>
-    <t>ᴍɪʀᴀᴇღ해리잉</t>
-  </si>
-  <si>
-    <t>De.그남자</t>
-  </si>
-  <si>
-    <t>R.강정이</t>
-  </si>
-  <si>
-    <t>ᴄᴡɴ_도윤노비</t>
-  </si>
-  <si>
-    <t>세야</t>
-  </si>
-  <si>
-    <t>R.검정좌</t>
-  </si>
-  <si>
-    <t>ᴄᴡɴ_주노</t>
-  </si>
-  <si>
-    <t>애플</t>
-  </si>
-  <si>
-    <t>KOR_Estrella</t>
-  </si>
-  <si>
-    <t>XQ_야후ღ</t>
-  </si>
-  <si>
-    <t>KOR_아조찌김모찌</t>
-  </si>
-  <si>
-    <t>KOR_조영동</t>
-  </si>
-  <si>
-    <t>KOR_Porn</t>
-  </si>
-  <si>
-    <t>mirae 해리</t>
-  </si>
-  <si>
-    <t>KOR_Autumn</t>
-  </si>
-  <si>
-    <t>R.겨울</t>
-  </si>
-  <si>
-    <t>KOR_Kuma</t>
-  </si>
-  <si>
-    <t>KOR_SUMMER</t>
-  </si>
-  <si>
-    <t>SFC丶露西</t>
-  </si>
-  <si>
-    <t>KOR_붕셰달달</t>
-  </si>
-  <si>
-    <t>R.아보</t>
-  </si>
-  <si>
-    <t>De.Z£us</t>
-  </si>
-  <si>
-    <t>ㅇㅂㅇ</t>
-  </si>
-  <si>
-    <t>ᴏɢ_라어못함</t>
-  </si>
-  <si>
-    <t>KOR_뼈대</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>4291</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4244</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4120</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -531,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4098</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -542,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>4085</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -553,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>4068</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4067</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>4067</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -586,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>4063</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -597,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>4043</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>4012</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -619,7 +619,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>4005</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -630,7 +630,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>3996</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -641,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>3992</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -652,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>3985</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -663,7 +663,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>3984</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -674,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>3980</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -685,7 +685,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>3979</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -696,7 +696,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>3978</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -707,7 +707,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>3958</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -718,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>3948</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -729,7 +729,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>3944</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -740,7 +740,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>3935</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -751,7 +751,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>3931</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -762,7 +762,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>3925</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -773,7 +773,7 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>3919</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -784,7 +784,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>3915</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -795,7 +795,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>3911</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +806,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>3894</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -817,7 +817,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>3854</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -828,7 +828,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>3808</v>
+        <v>3707</v>
       </c>
     </row>
   </sheetData>
